--- a/fed-events/Fed_Events-03.14.23.xlsx
+++ b/fed-events/Fed_Events-03.14.23.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jorcas/Development/python_scraper_parser_projects/fed-events/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{374612F7-45EE-EC43-9669-A4F50853F529}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FA2B928-040C-4944-B6C6-167E2454F87C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31320" yWindow="500" windowWidth="33540" windowHeight="20300" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FedScoop" sheetId="1" r:id="rId1"/>
@@ -837,15 +837,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -1190,7 +1182,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
@@ -2093,7 +2085,7 @@
   </sheetData>
   <autoFilter ref="A1:F39" xr:uid="{00000000-0001-0000-0100-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F39">
-      <sortCondition sortBy="cellColor" ref="A1:A39" dxfId="1"/>
+      <sortCondition sortBy="cellColor" ref="A1:A39" dxfId="0"/>
     </sortState>
   </autoFilter>
   <hyperlinks>
@@ -2290,7 +2282,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
